--- a/DEA.xlsx
+++ b/DEA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\UDESC\ThermoPhase - 2024\Testes de Consistência\consistency_tests_2024-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775CFE6-2B5D-468F-A991-292E4C218A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D569BD-D08D-4755-8334-3FEEFC1BF0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{374A84F8-05C8-4AAA-9046-90133252D7C9}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="10245" windowHeight="8715" xr2:uid="{374A84F8-05C8-4AAA-9046-90133252D7C9}"/>
   </bookViews>
   <sheets>
     <sheet name="deahso4_1_gupta" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>T [K]</t>
   </si>
@@ -60,119 +60,43 @@
     <t>[DEA][HSO4] 1wt%</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [K]</t>
-    </r>
-  </si>
-  <si>
-    <t>ΔT [K]</t>
-  </si>
-  <si>
-    <t>dT(T0T)</t>
-  </si>
-  <si>
-    <r>
-      <t>1/T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>aw</t>
-  </si>
-  <si>
-    <t>ln(aw)</t>
-  </si>
-  <si>
-    <t>ln(COSMO-RS)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">COSMO-RS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>γw</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">COSMO-RS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>γw  CORR</t>
-    </r>
-  </si>
-  <si>
-    <t>COSMO-RS aw</t>
-  </si>
-  <si>
-    <t>ln(aw) COSMO-RS</t>
-  </si>
-  <si>
-    <t>xw</t>
-  </si>
-  <si>
-    <t>xIL</t>
-  </si>
-  <si>
-    <t>xIL cosmo</t>
-  </si>
-  <si>
-    <t>RD COSMO-RS - aw</t>
-  </si>
-  <si>
-    <t>RD COSMO-RS - LN(aw)</t>
-  </si>
-  <si>
-    <t>xIL eff</t>
+    <t xml:space="preserve">Author </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System </t>
+  </si>
+  <si>
+    <t>T [°C]</t>
+  </si>
+  <si>
+    <t>T0 [K]</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>DT/T0T</t>
+  </si>
+  <si>
+    <t>Sdev</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Error1</t>
+  </si>
+  <si>
+    <t>1/T0</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Slope0</t>
+  </si>
+  <si>
+    <t>Error2</t>
   </si>
 </sst>
 </file>
@@ -182,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,15 +141,9 @@
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,25 +192,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,327 +525,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431ACFE6-8235-4E6F-8D5C-21FB2CFD088E}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="P1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="13" t="s">
         <v>20</v>
       </c>
       <c r="T1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <f>D2-273.15</f>
         <v>10.03000000000003</v>
       </c>
       <c r="D2" s="2">
         <v>283.18</v>
       </c>
       <c r="E2" s="1">
-        <f>F2*10</f>
         <v>76.599999999999994</v>
       </c>
       <c r="F2" s="3">
         <v>7.66</v>
       </c>
       <c r="G2" s="4">
-        <f>F2*10^6</f>
         <v>7660000</v>
       </c>
       <c r="H2" s="2">
         <v>283.6488467894726</v>
       </c>
       <c r="I2" s="5">
-        <f>F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
         <v>-1.4213519250461104E-11</v>
       </c>
       <c r="J2" s="5">
-        <f>H2-D2</f>
         <v>0.46884678947259317</v>
       </c>
       <c r="K2">
-        <f>(H2-D2)/(H2*D2)</f>
         <v>5.8369684623546403E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K5)</f>
         <v>4.629504201161252E-6</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K5)</f>
         <v>1.9647588150421916E-6</v>
       </c>
       <c r="N2">
-        <f>100*L2/M2</f>
         <v>235.62709914915624</v>
       </c>
       <c r="O2" s="6">
-        <f>LN(F2)</f>
         <v>2.0360119837525001</v>
       </c>
       <c r="P2" s="6">
-        <f>1/D2</f>
         <v>3.5313228335334414E-3</v>
       </c>
       <c r="Q2" s="6">
-        <f>1/H2</f>
         <v>3.5254858650710869E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O5,P2:P5)</f>
         <v>-9306.3313483956044</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O5,Q2:Q5)</f>
         <v>-8115.2770137180923</v>
       </c>
       <c r="T2" s="7">
-        <f>100*ABS(S2-R2)/ABS(S2)</f>
         <v>14.676693508602968</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C5" si="0">D3-273.15</f>
         <v>9.0400000000000205</v>
       </c>
       <c r="D3" s="2">
         <v>282.19</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E5" si="1">F3*10</f>
         <v>68.400000000000006</v>
       </c>
       <c r="F3" s="3">
         <v>6.84</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G5" si="2">F3*10^6</f>
         <v>6840000</v>
       </c>
       <c r="H3" s="2">
         <v>282.61582977425536</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I5" si="3">F3-10^(-4646.471 +5314653/H3 -2271392000/H3^2 +430306500000/H3^3 -30511740000000/H3^4)</f>
+      <c r="I3" s="14">
         <v>-2.0541790490824496E-11</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J5" si="4">H3-D3</f>
         <v>0.42582977425536228</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K5" si="5">(H3-D3)/(H3*D3)</f>
         <v>5.3394671751623122E-6</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" ref="O3:O5" si="6">LN(F3)</f>
         <v>1.922787731634459</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P5" si="7">1/D3</f>
         <v>3.5437116836174211E-3</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" ref="Q3:Q5" si="8">1/H3</f>
         <v>3.5383722164422588E-3</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
         <v>7.5400000000000205</v>
       </c>
       <c r="D4" s="2">
         <v>280.69</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
         <v>56.1</v>
       </c>
       <c r="F4" s="3">
         <v>5.61</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="2"/>
         <v>5610000</v>
       </c>
       <c r="H4" s="2">
         <v>280.74952491116335</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="3"/>
         <v>-5.4933835258452746E-12</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="4"/>
         <v>5.952491116335068E-2</v>
       </c>
       <c r="K4">
-        <f t="shared" si="5"/>
         <v>7.5535791686930824E-7</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="6"/>
         <v>1.724550719534605</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="7"/>
         <v>3.5626491859346611E-3</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="8"/>
         <v>3.5618938280177919E-3</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
         <v>4.4399999999999977</v>
       </c>
       <c r="D5" s="2">
         <v>277.58999999999997</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
         <v>39.6</v>
       </c>
       <c r="F5" s="3">
         <v>3.96</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="2"/>
         <v>3960000</v>
       </c>
       <c r="H5" s="2">
         <v>277.2765230928436</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="3"/>
         <v>2.2257529153080213E-10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="4"/>
         <v>-0.313476907156371</v>
       </c>
       <c r="K5">
-        <f t="shared" si="5"/>
         <v>-4.0727582942174934E-6</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="6"/>
         <v>1.3762440252663892</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="7"/>
         <v>3.6024352462264496E-3</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="8"/>
         <v>3.6065080045206668E-3</v>
       </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I12" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>